--- a/data/trans_orig/P78DS5_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P78DS5_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C50ACE03-8A41-4E16-B777-85213E3277F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3426ED52-F78B-4403-BFCD-8873B065CBA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A5555A1F-CECA-48AB-8AFE-C792AA6266B3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8C7B66F6-FF98-4A56-BC0D-3F30D35F1EBF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -134,13 +134,13 @@
     <t>0,07%</t>
   </si>
   <si>
-    <t>0,37%</t>
+    <t>0,41%</t>
   </si>
   <si>
     <t>0,03%</t>
   </si>
   <si>
-    <t>0,18%</t>
+    <t>0,17%</t>
   </si>
   <si>
     <t>99,79%</t>
@@ -149,13 +149,13 @@
     <t>99,93%</t>
   </si>
   <si>
-    <t>99,63%</t>
+    <t>99,59%</t>
   </si>
   <si>
     <t>99,97%</t>
   </si>
   <si>
-    <t>99,82%</t>
+    <t>99,83%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -176,13 +176,13 @@
     <t>Capitales</t>
   </si>
   <si>
-    <t>0,35%</t>
+    <t>0,34%</t>
   </si>
   <si>
     <t>0,04%</t>
   </si>
   <si>
-    <t>99,65%</t>
+    <t>99,66%</t>
   </si>
   <si>
     <t>99,96%</t>
@@ -191,7 +191,7 @@
     <t>0,06%</t>
   </si>
   <si>
-    <t>0,13%</t>
+    <t>0,14%</t>
   </si>
   <si>
     <t>0,02%</t>
@@ -200,7 +200,7 @@
     <t>99,94%</t>
   </si>
   <si>
-    <t>99,87%</t>
+    <t>99,86%</t>
   </si>
   <si>
     <t>99,98%</t>
@@ -618,7 +618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0622EA81-7C85-4FDB-842B-6BCCB1890A6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0D5F29-4199-4C83-88D5-7143FBA9C7B2}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1398,7 +1398,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1446,7 +1446,7 @@
         <v>49</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>17</v>

--- a/data/trans_orig/P78DS5_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P78DS5_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3426ED52-F78B-4403-BFCD-8873B065CBA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C65DDF5-AB94-4416-8C84-60575AF17C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8C7B66F6-FF98-4A56-BC0D-3F30D35F1EBF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DC1ADF29-6BA0-4B8C-8DB1-9AE605943B78}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Pagos de recibos de agua, gas, calefacción, electricidad, comunidad</t>
@@ -104,7 +104,7 @@
     <t>99,44%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,32%</t>
@@ -125,7 +125,7 @@
     <t>99,88%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,21%</t>
@@ -158,7 +158,7 @@
     <t>99,83%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>0,3%</t>
@@ -618,7 +618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0D5F29-4199-4C83-88D5-7143FBA9C7B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB2E5D23-5EE7-440F-A06A-A58532C86A76}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
